--- a/biology/Botanique/Le_Sang_de_la_vigne/Le_Sang_de_la_vigne.xlsx
+++ b/biology/Botanique/Le_Sang_de_la_vigne/Le_Sang_de_la_vigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Sang de la vigne est une série télévisée policière franco-belge produite par Télécip, BE-Films et la RTBF (télévision belge) à partir de 2011. Les épisodes sont diffusés en avant-première sur la RTBF (télévision belge).
 La série est l'adaptation des livres de Jean-Pierre Alaux et Noël Balen dans la collection éponyme, tous publiés chez Fayard.
-Elle est diffusée à partir du 12 février 2011 au sur France 3 jusqu'à la diffusion du 22e épisode le 21 janvier 2017. Elle fut ensuite rediffusée sur RMC Story[1] et l'est actuellement sur 13e rue[2] et C8[3].
+Elle est diffusée à partir du 12 février 2011 au sur France 3 jusqu'à la diffusion du 22e épisode le 21 janvier 2017. Elle fut ensuite rediffusée sur RMC Story et l'est actuellement sur 13e rue et C8.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série met en scène les investigations menées par l'éminent œnologue français Benjamin Lebel, sa compagne France Pelletier et ses assistants Mathilde et Silvère, à la suite de meurtres commis dans le milieu viticole.
 </t>
@@ -545,13 +559,15 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Scénario et dialogues : Jean-Pierre Alaux et Noël Balen Jacques Lebrima et Christiane Lebrima
 musique : Stéphane Zidi, Laurent Sauvagnac, Jean-Marie Sénia
 Durée : 90 min
 Pays :  France,  Belgique
-Sociétés de production : Télécip, Be-Films, RTBF[4],[5],[6],[7]
+Sociétés de production : Télécip, Be-Films, RTBF
 Genre : Policier
 Année de production : depuis 2011</t>
         </is>
@@ -581,7 +597,9 @@
           <t>Distribution générale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre Arditi : Benjamin Lebel
 Claire Nebout : France Pelletier, œnologue, puis compagne de Benjamin
@@ -619,12 +637,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1-Les Larmes de Pasquin
-Diffusé le 12 février 2011
+          <t>1-Les Larmes de Pasquin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Diffusé le 12 février 2011
 Réalisation : Marc Rivière
 Musique : Laurent Sauvagnac et Stéphane Zidi
 Adapté de : Saint Pétrus et le saigneur, également publié en livre de poche.
-Audience : 3 541 000 téléspectateurs[8]
+Audience : 3 541 000 téléspectateurs
 Résumé : Alors que Benjamin Lebel prépare son nouveau guide à Bordeaux, le commandant Barbaroux vient interrompre son travail. La veille, le corps sans vie d'un octogénaire a été découvert avec une mise en scène insolite. À côté du cadavre ont été posés un verre rempli de vin et onze autres verres vides. Le commandant demande à Benjamin de lui préciser le terroir et le millésime de ce vin.
 Distribution
 Alexandre Hamidi : Virgile, assistant de Benjamin Lebel
@@ -665,8 +688,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2-Le Dernier coup de Jarnac
-Diffusé le 10 décembre 2011
+          <t>2-Le Dernier coup de Jarnac</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Diffusé le 10 décembre 2011
 Réalisation : Marc Rivière
 Production : Lissa Pillu
 Scénario et dialogues : Jacques et Christiane Lebrima
@@ -683,9 +711,43 @@
 Raphaël Lenglet : Gautier Forget
 Santha Leng : Hiroshi Tanaka
 Lieux de tournage
-département de la Charente : Angoulême, Jarnac, Bourg-Charente, Châteauneuf-sur-Charente, Boutiers-Saint-Trojan, Châteaubernard, Saint-Même-les-Carrières, Angeac-Champagne, Segonzac.
-3-La Robe de Margaux
-Diffusé le 28 janvier 2012
+département de la Charente : Angoulême, Jarnac, Bourg-Charente, Châteauneuf-sur-Charente, Boutiers-Saint-Trojan, Châteaubernard, Saint-Même-les-Carrières, Angeac-Champagne, Segonzac.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Saison 2 (2011-2012)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3-La Robe de Margaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Diffusé le 28 janvier 2012
 Réalisation : Marc Rivière
 Production : Lissa Pillu
 Scénario et dialogues : Jacques Lebrima et Daniel Tonachella
@@ -704,9 +766,43 @@
 Igor Skreblin : Youri
 Lieux de tournage
 département de la Gironde : Bordeaux, Lignan-de-Bordeaux, Saint-Étienne-de-Lisse, Saint-Christophe-des-Bardes, Montagne, Saint-Caprais-de-Bordeaux, Saint-Genès-de-Castillon, Lanton, aéroport de Bordeaux-Mérignac.
-département du Puy-de-Dôme : Clermont-Ferrand (muséum Henri-Lecoq).
-4-Mission à Pessac
-Diffusé le 4 février 2012
+département du Puy-de-Dôme : Clermont-Ferrand (muséum Henri-Lecoq).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Saison 2 (2011-2012)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4-Mission à Pessac</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Diffusé le 4 février 2012
 Réalisation : Aruna Villiers
 Production : Lissa Pillu
 Scénario et dialogues : Jacques Lebrima et Daniel Tonachella
@@ -727,34 +823,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Saison 3 (2012-2013)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5-Noces d'or à Sauternes
-Diffusé le 1er décembre 2012
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5-Noces d'or à Sauternes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Diffusé le 1er décembre 2012
 Réalisation : Aruna Villiers
 Production : Lissa Pillu
 Scénario : Jacques et Christiane Lebrima
@@ -764,11 +865,45 @@
 Audience : 3 millions
 Résumé : Lors d'une séance de dédicace pour son livre, Benjamin Lebel est sollicité par Jean et Léonie Lacombe, un couple de sexagénaires qui lui demandent d'expertiser leur cave. Celle-ci contient des bouteilles de Sauternes d'une grande valeur : quarante millésimes différents de Château Paralia. Silvère se rend chez les Lacombe le soir même mais trouve porte close. Le lendemain, lorsqu'il revient avec Mathilde, il trouve le couple assassiné et les bouteilles de vin ont disparu. Interrogé par la police, Silvère omet de mentionner sa visite infructueuse de la veille, mais un témoin l'a vu...
 Distribution :
-Suzanne Aubert : Léa Lacombe[9]
+Suzanne Aubert : Léa Lacombe
 Dominique Pinon : Milou Savin
-Thierry Nenez : Macarie
-6-Les Veuves soyeuses
-Diffusé le 9 mars 2013
+Thierry Nenez : Macarie</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Saison 3 (2012-2013)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6-Les Veuves soyeuses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Diffusé le 9 mars 2013
 Réalisation : Régis Musset
 Musique : Jean-Marie Sénia
 Production : Lissa Pillu
@@ -786,9 +921,43 @@
 Frédéric Longbois : Hans Lucas
 Hervé Masquelier : Paul de Vonnelle
 Lieux de tournage
-département de la Marne : Aÿ, Épernay, Chavot-Courcourt, Hautvillers, Tinqueux.
-7-Boire et déboires en Val de Loire
-Diffusé le 16 mars 2013
+département de la Marne : Aÿ, Épernay, Chavot-Courcourt, Hautvillers, Tinqueux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Saison 3 (2012-2013)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7-Boire et déboires en Val de Loire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Diffusé le 16 mars 2013
 Réalisation : Marc Rivière
 Production : Lissa Pillu
 Scénario : Jacques Lebrima et Christiane Lebrima
@@ -805,9 +974,43 @@
 Christophe Laubion : Alain Boileau
 Yvon Martin : Fred, le maître de chai
 Lieux de tournage :
-département d' Indre-et-Loire : Bourgueil, Cheillé, Azay-le-Rideau.
-8-Question d'eau de vie… ou de mort
-Diffusé le 6 avril 2013
+département d' Indre-et-Loire : Bourgueil, Cheillé, Azay-le-Rideau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Saison 3 (2012-2013)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8-Question d'eau de vie… ou de mort</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Diffusé le 6 avril 2013
 Réalisation : Aruna Villiers
 Musique : Jean-Marie Sénia
 Adapté de : Question d'eau de vie… ou de mort
@@ -829,39 +1032,44 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Saison 4 (2014)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9-Du raffut à Saint-Vivant
-Diffusé le 11 janvier 2014
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9-Du raffut à Saint-Vivant</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Diffusé le 11 janvier 2014
 Réalisation : Aruna Villiers
 Musique : Jean-Marie Sénia
 Scénariste : Christiane Lebrima
 Adapté de : Flagrant délit à la Romanée-Conti
-Audience : 3,67 millions[10]
+Audience : 3,67 millions
 Résumé : Le corps d'une jeune femme est retrouvé dans les vignes du domaine d'Ubayre à Beaune que Benjamin est venu expertiser. Chloé était employée comme travailleuse saisonnière au domaine mais la police découvre qu'elle était impliquée dans des vols de bouteilles de grand cru dans plusieurs régions de France.
 Distribution
 Stéphane De Groodt : commandant Cluzel
@@ -875,15 +1083,49 @@
 Jacques Chambon : René Gousset
 Lieux de tournage
 département de la Côte-d'Or : Beaune (dont les hospices civils), Aloxe-Corton, Volnay, Saint-Romain.
-département du Jura : Petit-Noir.
-10-Vengeances tardives en Alsace
-Diffusé le 18 janvier 2014
+département du Jura : Petit-Noir.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Saison 4 (2014)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10-Vengeances tardives en Alsace</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Diffusé le 18 janvier 2014
 Réalisation : Marc Rivière
 Production : Lissa Pillu
 Musique : Jean-Marie Sénia
 Scénariste : Jacques Lebrima et Nils-Antoine Sambuc
 Adapté de : Vengeances tardives en Alsace
-Audience : 3,69 millions[11]
+Audience : 3,69 millions
 Résumé : La journaliste Odile Six est tuée sur un terrain de golf en Alsace, heurtée à la tête par une balle de golf avec une extrême violence. Le lieutenant Isabelle Bory de la gendarmerie de Strasbourg contacte Benjamin Lebel car elle a trouvé sur le téléphone de la victime la trace d'un appel à Lebel. La journaliste voulait lui demander des renseignements dans le cadre d'un article qu'elle préparait sur Edgar Loewen, un client de Lebel. Ce dernier n'avait pas accédé à la demande de la journaliste car il ne donne jamais aucune information sur ses clients. Lebel se rend en Alsace avec Silvère pour élucider ce meurtre. Il se rend chez Loewen, un gestionnaire de patrimoine franco-luxembourgeois qui lui avait demandé trois ans auparavant d'expertiser le domaine viticole Zumbach, avant de s'en porter acquéreur et de racheter dans la foulée d'autres terres dans la région. Loewen est en plein conflit avec le propriétaire voisin, Vincent Kreutzler, qui fait du bio et ne traite pas ses vignes. Loewen le tient pour responsable des parasites qui envahissent ses vignes. Lebel se heurte d'entrée de jeu tant à l'hostilité de Thomas Barrateau, l'œnologue-conseil de Loewen, qu'à celle d'Elsa, fille de Kreutzler et amie d'Odile Six. Barrateau se vante auprès de Silvère de connaître l'identité du meurtrier mais il est assassiné à son tour avant d'avoir pu parler. C'est ensuite le tour d'Hugo Basler, l'ami d'Elsa Kreutzler.
 Distribution
 Anne Caillon : lieutenant Isabelle Bory
@@ -895,16 +1137,50 @@
 Caroline Furioli : Odile Six
 David Salles : adjudant Mercier
 Lieux de tournage
-département du Bas-Rhin : Strasbourg (dont le palais Rohan), Nothalten, Itterswiller.
-11-Cauchemar en Côte-de-Nuits[12]
-Diffusé le 25 janvier 2014
+département du Bas-Rhin : Strasbourg (dont le palais Rohan), Nothalten, Itterswiller.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Saison 4 (2014)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>11-Cauchemar en Côte-de-Nuits[12]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Diffusé le 25 janvier 2014
 Réalisation : Aruna Villiers
 Production : Lissa Pillu
 Musique : Jean-Marie Sénia
 Scénariste : Christiane Lebrima et Didier Vinson
 Directeur d'écriture : Jacques Lebrima
 Adapté de : Cauchemar dans les Côtes-de-Nuits
-Audience : 3,49 millions[13]
+Audience : 3,49 millions
 Résumé : Benjamin Lebel occupe la place d'invité d'honneur à une séance de dégustation du Clos Vougeot 2011 lorsque surgit soudain Bernard Aristide, le plus gros négociant de la région, qui revendique sa place. Quelques minutes après le début de la dégustation, Aristide s'écroule, empoisonné à la ricine. En un premier temps, tout porte à croire que c'est Benjamin qui était visé mais il apparaît rapidement que Bernard Aristide, séducteur patenté aux frasques nombreuses, avait eu des mots avec les frères Montclar lors de la dernière réunion du syndicat viticole. Silvère aperçoit des tourteaux de ricin dans la remise des Montclar, ce qui amène Silvère et son patron à les suspecter, d'autant plus qu'ils semblent être violents et en vouloir à Aristide. Mais, peu de temps après, c'est au tour des frères Montclar d'être assassinés, suivis de peu par Adèle Granjeon, une viticultrice qui les avait payés des années auparavant pour infester la parcelle de sa nièce Murielle, afin de racheter cette parcelle à vil prix. Or Murielle Granjeon avait été séduite par Bernard Aristide, il y a vingt ans...
 Distribution
 Éric Laugérias : Roger Vincenot
@@ -920,14 +1196,48 @@
 Hélène Hardouin : Adèle Granjeon
 Lieux de tournage
 département de la Côte-d'Or : Dijon, Vougeot, Beaune, Levernois, Sainte-Marie-la-Blanche, Fixin, Aloxe-Corton, Santenay, Morey-Saint-Denis.
-département de Saône-et-Loire : Saint-Denis-de-Vaux.
-12-Le Mystère du vin jaune
-Diffusé le 15 février 2014
+département de Saône-et-Loire : Saint-Denis-de-Vaux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Saison 4 (2014)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>12-Le Mystère du vin jaune</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Diffusé le 15 février 2014
 Réalisation : Régis Musset
 Musique : Jean-Marie Sénia
 Scénario : Jacques Lebrima et Christiane Lebrima
 Adapté de : Une bouteille entre deux mers
-Audience : 3,2 millions[14]
+Audience : 3,2 millions
 Résumé : Venu accompagner France dans le Jura pour une expertise, Benjamin Lebel se trouve face à un meurtre, un suicide mystérieux et une parcelle de vin jaune qui suscite bien des convoitises...
 Distribution
 Jean-François Stévenin : Jeff Marigny
@@ -937,40 +1247,45 @@
 Nanou Garcia : Flora Ibanez
 Gamil Ratib : le docteur Raffi
 Joséphine Arnulf : Maria Ibanez
-Johann Dionnet : Lieutenant Verron[15]
+Johann Dionnet : Lieutenant Verron
 Lieux de tournage
 département du Jura : Château-Chalon, Arbois, Lons-le-Saunier, Marigny, Maisod (lac de Vouglans), Nogna, Frontenay, Nevy-sur-Seille, Baume-les-Messieurs, Montain, aéroport de Dole-Jura.</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Saison 5 (2014/2015)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>13-Massacre à la sulfateuse
-Réalisé en 2014
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>13-Massacre à la sulfateuse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Réalisé en 2014
 Diffusé le 15 novembre 2014 sur les ondes de la RTBF, puis le 3 janvier 2015 sur France 3
 Réalisation : Régis Musset
 Production : Lissa Pillu
@@ -978,7 +1293,7 @@
 Dialogues : Christiane Lebrima
 Musique : Jean-Marie Sénia
 Adapté de : Massacre à la sulfateuse
-Audience : 222 500 téléspectateurs le 15/11/2014 sur la RTBF[16]; 3,8 millions de téléspectateurs le 3/01/2015 sur France 3[17]
+Audience : 222 500 téléspectateurs le 15/11/2014 sur la RTBF; 3,8 millions de téléspectateurs le 3/01/2015 sur France 3
 Résumé : Benjamin Lebel, secondé par France Pelletier, est appelé à Châteauneuf-du-Pape par Edgar Loewen pour expertiser le Domaine Duèze, propriété des sœurs Catherine, Léopoldine et Sixtine Castelnaut depuis la mort de leur père. Le domaine est en déclin depuis la mort de l'ancien maître de chai Marcel Ollier que le père Castelnaut avait prétendu remplacer lui-même, avec l'aide de son beau-fils Bertrand Fournier, au lieu d'engager Francis, le fils de Marcel. Catherine, violée durant son adolescence par son père, a fui le domaine à l'âge de 17 ans et a refait sa vie à Berlin où elle tient une galerie d'art moderne sous le nom de Kate Weller. Léopoldine, à qui son père avait imposé un mariage forcé avec Fournier, vient d'être opérée d'un cancer du sein. Léopoldine et Kate ont décidé de faire expertiser le domaine, dans un but qui ne semble pas clair, et ce, à l'insu de leur jeune sœur Sixtine, la seule que la viticulture passionne vraiment. Peu après l'arrivée de Benjamin, quelqu'un pulvérise plusieurs parcelles du domaine avec du défoliant : Benjamin et Francis Ollier (qui semble avoir une relation avec Kate) commencent à enquêter, mais Ollier est retrouvé assassiné au milieu des vignes...
 Distribution
 Laure Marsac : Kate Weller
@@ -993,9 +1308,43 @@
 Michel Lerousseau : capitaine de gendarmerie
 André Lévêque : Philippe Castelnaut
 Lieux de tournage
-département de Vaucluse : Avignon, Bédarrides, Châteauneuf-du-Pape, Malemort-du-Comtat, Pernes-les-Fontaines, Sorgues, Courthézon.
-14-Coup de tonnerre dans les Corbières
-Réalisé en 2014
+département de Vaucluse : Avignon, Bédarrides, Châteauneuf-du-Pape, Malemort-du-Comtat, Pernes-les-Fontaines, Sorgues, Courthézon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Saison 5 (2014/2015)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>14-Coup de tonnerre dans les Corbières</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Réalisé en 2014
 Diffusé le 13 décembre 2014 sur La Une (RTBF), puis le 10 janvier 2015 sur France 3
 Réalisation : Régis Musset
 Production : Lissa Pillu
@@ -1016,16 +1365,50 @@
 Carole Deffit : commandant Lola Montaron
 Éric Frey : Jérôme Séverino, dit Géronimo
 Lieux de tournage
-département de l'Aude : Narbonne, Gruissan, Fleury, Lagrasse (dont l'abbaye Sainte-Marie de Lagrasse), Bages, Sallèles-d'Aude, Lézignan-Corbières.
-15-Chaos dans le vin noir
-Réalisé en 2014
+département de l'Aude : Narbonne, Gruissan, Fleury, Lagrasse (dont l'abbaye Sainte-Marie de Lagrasse), Bages, Sallèles-d'Aude, Lézignan-Corbières.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Saison 5 (2014/2015)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>15-Chaos dans le vin noir</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Réalisé en 2014
 Diffusé le 27 décembre 2014 sur La Une (RTBF), puis le 9 janvier 2015 sur RTS Deux et le 17 janvier 2015 sur France 3
 Réalisation : Marc Rivière
 Production : Lissa Pillu
 Scénario et dialogues : Didier Vinson
 Musique : Jean-Marie Sénia
 Adapté de : On achève bien les tonneaux
-Audience : 253 900 téléspectateurs le 27/12/2014 sur la RTBF[18]
+Audience : 253 900 téléspectateurs le 27/12/2014 sur la RTBF
 Résumé : Benjamin Lebel, accompagné de son assistante Mathilde, se rend à Cahors pour évaluer une cuvée du Château Camps de Grèze, propriété d'Édouard Perolles. Mais, au moment de goûter cette cuvée, Benjamin et Mathilde ont un haut-le-cœur : le vin est infect ! Et pour cause : un cadavre est retrouvé dans la cuve no 13 ! Le capitaine Medraoui, de la Police Judiciaire, suspecte d'entrée de jeu Édouard Perolles. Mais Benjamin est plus circonspect car les protagonistes sont nombreux dans cette affaire : Perolles ; son assistante, Graziella ; son maître de chai, Foissac; son grand rival, André Chiche (richissime marchand de voitures et propriétaire du Château Erquier) ; l'assistant de Chiche, Stanislas (qui n'est autre que le fils de Perolles) ; le maître de chai du Château Erquier, Manuel Moreira (un transfuge du Château Camps de Grèze)...
 Distribution
 Didier Bezace : Édouard Perolles
@@ -1043,37 +1426,42 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Saison 6 (2015/2016)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>16-Un coup de rosé bien frappé
-Réalisé en 2015
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>16-Un coup de rosé bien frappé</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Réalisé en 2015
 Diffusé le 23 octobre 2015 sur RTS Un, le 2 janvier 2016 sur France 3
 Réalisation : Régis Musset
-Audience : 3,95 millions de téléspectacteurs le 2 janvier 2016 sur France 3[19]
+Audience : 3,95 millions de téléspectacteurs le 2 janvier 2016 sur France 3
 Résumé : Benjamin Lebel est consulté par Jérémie Casenove, un investisseur désireux de se porter acquéreur du Domaine de la Treille Lavande dont le maître de chai est le père de sa compagne Manon. Très croyante, la propriétaire du domaine Angèle Marcarol veut en faire don à une communauté religieuse mais le notaire et le clerc de notaire chargés du dossier meurent l'un après l'autre de crise cardiaque. Ces décès sont d'autant plus suspects que le clerc de notaire est le petit-neveu de la veuve Marcarol.
 Distribution
 Lio : Angèle Marcarol
@@ -1086,13 +1474,47 @@
 Nicolas Bridet : capitaine Lescaut
 Lieux de tournage
 département du Var : Bandol (dont l'île de Bendor), Sanary-sur-Mer.
-département des Bouches-du-Rhône : Gémenos.
-17-Médoc sur ordonnance
-Réalisé en 2015
+département des Bouches-du-Rhône : Gémenos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Saison 6 (2015/2016)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>17-Médoc sur ordonnance</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Réalisé en 2015
 Diffusé le 24 octobre 2015 sur La Une (RTBF), le 9 janvier 2016 sur France 3
 Réalisation : René Manzor
 Adapté de : Médoc sur ordonnance de Noël Balen et Jean-Pierre Alaux
-Audience : 3,67 millions de téléspectateurs le 9 janvier 2016 sur France 3[20]
+Audience : 3,67 millions de téléspectateurs le 9 janvier 2016 sur France 3
 Résumé : Macha Grimaud, propriétaire du château Rolbarie à Saint-Estèphe et amie d'enfance de France, appelle France à la rescousse pour organiser en urgence une dégustation à la demande d'un important négociant. France, qui est également l'œnologue de Macha, accourt, accompagnée de Benjamin qui a promis à René, le mari de Macha, d'écrire un article sur la clinique de désintoxication pour alcooliques qu'il dirige. Mais Macha s'est disputée avec René parce qu'il passe trop de temps à la clinique et elle est sans nouvelle de lui depuis deux jours. Sur la route de la clinique, Benjamin aperçoit une scène de crime : la victime, Florence Colombe, est une patiente de la clinique Grimaud et son corps gît avec un poignard dans la poitrine à quelques dizaines de mètres seulement du carrelet (maison sur pilotis) que René Grimaud possède au bord de l'estuaire de la Gironde...
 Distribution
 Grégori Derangère : René Grimaud
@@ -1106,9 +1528,43 @@
 Nadia Fossier : Elsa
 Olivier Chantreau : Alexandre
 Lieux de tournage
-département de la Gironde : Bordeaux, Bourg, Prignac-et-Marcamps, Saint-Estèphe, Saint-Gervais.
-18-Pour qui sonne l'angélus ?
-Réalisé en 2015
+département de la Gironde : Bordeaux, Bourg, Prignac-et-Marcamps, Saint-Estèphe, Saint-Gervais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Saison 6 (2015/2016)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>18-Pour qui sonne l'angélus ?</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Réalisé en 2015
 Diffusé le 5 décembre 2015 sur La Une (RTBF), le 16 janvier 2016 sur France 3
 Réalisation : René Manzor
 Production : Lissa Pillu
@@ -1125,9 +1581,43 @@
 Pierre-Yves Bon : Rudy
 Franck Adrien : capitaine Dumont
 Lieux de tournage
-département de la Gironde : Bordeaux (dont le C.H.U. Haut-Lévêque), Bayon-sur-Gironde, Blanquefort, Prignac-et-Marcamps, Saint-Laurent-d'Arce.
-19-Ne tirez pas sur le caviste
-Réalisé en 2015
+département de la Gironde : Bordeaux (dont le C.H.U. Haut-Lévêque), Bayon-sur-Gironde, Blanquefort, Prignac-et-Marcamps, Saint-Laurent-d'Arce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Saison 6 (2015/2016)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>19-Ne tirez pas sur le caviste</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Réalisé en 2015
 Diffusé le 12 décembre 2015 sur La Une (RTBF), le 23 janvier 2016 sur France 3
 Réalisation : Aruna Villiers
 Production : Lissa Pillu
@@ -1150,34 +1640,39 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Saison 7 (2016/2017)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>20-Retour à Nantes
-Réalisé en 2016
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>20-Retour à Nantes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Réalisé en 2016
 Diffusé le 2 décembre 2016 sur RTS Un, le 7 janvier 2017 sur France 3
 Réalisation : Klaus Biedermann
 Audience :
@@ -1194,9 +1689,43 @@
 Maud Rayer : Mme Guillemin mère
 Lieux de tournage
 département de Loire-Atlantique : Saint-Fiacre-sur-Maine, Divatte-sur-Loire, Saint-Nazaire, Rezé, Vertou, Pornichet, Haute-Goulaine.
-département de Maine-et-Loire : Mauges-sur-Loire (Saint-Laurent-du-Mottay).
-21-Le Vin nouveau n'arrivera pas
-Réalisé en 2016
+département de Maine-et-Loire : Mauges-sur-Loire (Saint-Laurent-du-Mottay).</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Saison 7 (2016/2017)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>21-Le Vin nouveau n'arrivera pas</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Réalisé en 2016
 Diffusé le 12 janvier 2017 sur RTS Deux, le 14 janvier 2017 sur France 3
 Réalisation : Franck Mancuso
 Audience :
@@ -1214,9 +1743,43 @@
 Pascal Gimenez : capitaine Rivet
 Linda Massoz : lieutenant Carroire
 Lieux de tournage
-département du Rhône : Lyon, Bagnols, Oingt, Le Bois-d'Oingt, Pommiers, Villefranche-sur-Saône, Anse, Charbonnières-les-Bains.
-22-Crise aiguë dans les Graves
-Réalisé en 2016
+département du Rhône : Lyon, Bagnols, Oingt, Le Bois-d'Oingt, Pommiers, Villefranche-sur-Saône, Anse, Charbonnières-les-Bains.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Sang_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Saison 7 (2016/2017)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>22-Crise aiguë dans les Graves</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Réalisé en 2016
 Diffusé le 21 janvier 2017 sur France 3
 Réalisation : Marc Rivière
 Production : Lissa Pillu
